--- a/database/industries/dode/shesadaf/cashflow/yearly.xlsx
+++ b/database/industries/dode/shesadaf/cashflow/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E7A53-FD31-4EAE-A535-7F3E722069AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE7015-FCFB-49A3-A5B9-6614FE1CFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-11-02 (2)</t>
-  </si>
-  <si>
     <t>1399-04-18 (8)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-05-19 (9)</t>
   </si>
   <si>
-    <t>1401-11-01 (6)</t>
+    <t>1402-02-27 (7)</t>
+  </si>
+  <si>
+    <t>1402-02-27</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -76,79 +76,79 @@
     <t>نقد حاصل از عملیات</t>
   </si>
   <si>
+    <t>مالیات بر درامد پرداختنی</t>
+  </si>
+  <si>
+    <t>جریان خالص ورود (خروج) وجه نقد ناشی از فعالیتهای عملیاتی</t>
+  </si>
+  <si>
+    <t>فعالیتهای سرمایه گذاری</t>
+  </si>
+  <si>
+    <t>وجوه دریافتنی بابت فروش دارایی های ثابت مشهود</t>
+  </si>
+  <si>
+    <t>وجوه پرداختنی بابت تحصیل دارایی های ثابت مشهود</t>
+  </si>
+  <si>
+    <t>دریافت‌های نقدی حاصل از فروش دارایی‌های نگهداری‌شده برای فروش</t>
+  </si>
+  <si>
+    <t>وجوه دریافتی بابت فروش دارایی های نامشهود</t>
+  </si>
+  <si>
+    <t>وجوه پرداختی بابت تحصیل دارایی های نامشهود</t>
+  </si>
+  <si>
+    <t>تسهیلات اعطایی به اشخاص</t>
+  </si>
+  <si>
+    <t>استرداد تسهیلات اعطایی به اشخاص</t>
+  </si>
+  <si>
+    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های بلند مدت</t>
+  </si>
+  <si>
+    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های بلند مدت</t>
+  </si>
+  <si>
+    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های کوتاه مدت</t>
+  </si>
+  <si>
+    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های کوتاه مدت</t>
+  </si>
+  <si>
+    <t>وجوه دریافتی بابت فروش سرمایه گذاری در املاک</t>
+  </si>
+  <si>
+    <t>وجوه پرداختی بابت خرید سرمایه گذاری در املاک</t>
+  </si>
+  <si>
+    <t>دریافت‌های نقدی حاصل از سود تسهیلات اعطایی به دیگران</t>
+  </si>
+  <si>
+    <t>سود سهام دریافتی</t>
+  </si>
+  <si>
+    <t>سود دریافتنی بابت سایر سرمایه گذاری ها</t>
+  </si>
+  <si>
+    <t>جریان خالص ورود (خروج) نقد حاصل از فعالیت‌های سرمایه‌گذاری IFRS</t>
+  </si>
+  <si>
+    <t>جریان خالص ورود (خروج) وجه نقد قبل از فعالیتهای تامین مالی</t>
+  </si>
+  <si>
+    <t>فعالیتهای تامین مالی</t>
+  </si>
+  <si>
+    <t>وجوه دریافتنی حاصل از افزایش سرمایه</t>
+  </si>
+  <si>
+    <t>دریافت‌های نقدی حاصل از صرف سهام</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>مالیات بر درامد پرداختنی</t>
-  </si>
-  <si>
-    <t>جریان خالص ورود (خروج) وجه نقد ناشی از فعالیتهای عملیاتی</t>
-  </si>
-  <si>
-    <t>فعالیتهای سرمایه گذاری</t>
-  </si>
-  <si>
-    <t>وجوه دریافتنی بابت فروش دارایی های ثابت مشهود</t>
-  </si>
-  <si>
-    <t>وجوه پرداختنی بابت تحصیل دارایی های ثابت مشهود</t>
-  </si>
-  <si>
-    <t>دریافت‌های نقدی حاصل از فروش دارایی‌های نگهداری‌شده برای فروش</t>
-  </si>
-  <si>
-    <t>وجوه دریافتی بابت فروش دارایی های نامشهود</t>
-  </si>
-  <si>
-    <t>وجوه پرداختی بابت تحصیل دارایی های نامشهود</t>
-  </si>
-  <si>
-    <t>تسهیلات اعطایی به اشخاص</t>
-  </si>
-  <si>
-    <t>استرداد تسهیلات اعطایی به اشخاص</t>
-  </si>
-  <si>
-    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های بلند مدت</t>
-  </si>
-  <si>
-    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های بلند مدت</t>
-  </si>
-  <si>
-    <t>وجوه دریافتنی بابت فروش سرمایه گذاری های کوتاه مدت</t>
-  </si>
-  <si>
-    <t>وجوه پرداختنی بابت تحصیل سرمایه گذاری های کوتاه مدت</t>
-  </si>
-  <si>
-    <t>وجوه دریافتی بابت فروش سرمایه گذاری در املاک</t>
-  </si>
-  <si>
-    <t>وجوه پرداختی بابت خرید سرمایه گذاری در املاک</t>
-  </si>
-  <si>
-    <t>دریافت‌های نقدی حاصل از سود تسهیلات اعطایی به دیگران</t>
-  </si>
-  <si>
-    <t>سود سهام دریافتی</t>
-  </si>
-  <si>
-    <t>سود دریافتنی بابت سایر سرمایه گذاری ها</t>
-  </si>
-  <si>
-    <t>جریان خالص ورود (خروج) نقد حاصل از فعالیت‌های سرمایه‌گذاری IFRS</t>
-  </si>
-  <si>
-    <t>جریان خالص ورود (خروج) وجه نقد قبل از فعالیتهای تامین مالی</t>
-  </si>
-  <si>
-    <t>فعالیتهای تامین مالی</t>
-  </si>
-  <si>
-    <t>وجوه دریافتنی حاصل از افزایش سرمایه</t>
-  </si>
-  <si>
-    <t>دریافت‌های نقدی حاصل از صرف سهام</t>
   </si>
   <si>
     <t>وجوه دریافتی بابت فروش سهام شرکت اصلی توسط شرکتهای فرعی / سهام خزانه</t>
@@ -696,14 +696,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,7 +712,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -743,7 +743,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -774,7 +774,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,7 +825,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -836,72 +836,72 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="15">
+        <v>649169</v>
+      </c>
+      <c r="E12" s="15">
+        <v>390375</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1202211</v>
+      </c>
+      <c r="G12" s="15">
+        <v>3716</v>
+      </c>
+      <c r="H12" s="15">
+        <v>5355566</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="E12" s="15">
-        <v>649169</v>
-      </c>
-      <c r="F12" s="15">
-        <v>390375</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1202211</v>
-      </c>
-      <c r="H12" s="15">
-        <v>3716</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-1188</v>
+        <v>-17</v>
       </c>
       <c r="E13" s="11">
-        <v>-17</v>
+        <v>-698</v>
       </c>
       <c r="F13" s="11">
-        <v>-698</v>
+        <v>-1832</v>
       </c>
       <c r="G13" s="11">
-        <v>-1832</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1466</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>122846</v>
+        <v>649152</v>
       </c>
       <c r="E14" s="17">
-        <v>649152</v>
+        <v>389677</v>
       </c>
       <c r="F14" s="17">
-        <v>389677</v>
+        <v>1200379</v>
       </c>
       <c r="G14" s="17">
-        <v>1200379</v>
+        <v>3716</v>
       </c>
       <c r="H14" s="17">
-        <v>3716</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5354100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -910,16 +910,16 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>1343</v>
       </c>
       <c r="E16" s="15">
-        <v>1343</v>
+        <v>0</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -931,51 +931,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-16888</v>
+        <v>-11608</v>
       </c>
       <c r="E17" s="11">
-        <v>-11608</v>
+        <v>-119840</v>
       </c>
       <c r="F17" s="11">
-        <v>-119840</v>
+        <v>-986014</v>
       </c>
       <c r="G17" s="11">
-        <v>-986014</v>
+        <v>-513978</v>
       </c>
       <c r="H17" s="11">
-        <v>-513978</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1693021</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -994,37 +994,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-1764</v>
       </c>
       <c r="E20" s="15">
-        <v>-1764</v>
+        <v>-570</v>
       </c>
       <c r="F20" s="15">
-        <v>-570</v>
+        <v>-630</v>
       </c>
       <c r="G20" s="15">
-        <v>-630</v>
+        <v>0</v>
       </c>
       <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>0</v>
+        <v>-420000</v>
       </c>
       <c r="E21" s="11">
-        <v>-420000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -1036,9 +1036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1057,9 +1057,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1078,9 +1078,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1099,9 +1099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1120,9 +1120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
@@ -1141,9 +1141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1162,9 +1162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1183,30 +1183,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>15700</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>15700</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -1225,72 +1225,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>20</v>
+        <v>18351</v>
       </c>
       <c r="E31" s="11">
-        <v>18351</v>
+        <v>9908</v>
       </c>
       <c r="F31" s="11">
-        <v>9908</v>
+        <v>5725</v>
       </c>
       <c r="G31" s="11">
-        <v>5725</v>
+        <v>4801</v>
       </c>
       <c r="H31" s="11">
-        <v>4801</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-16888</v>
+        <v>-413678</v>
       </c>
       <c r="E32" s="17">
-        <v>-413678</v>
+        <v>-94802</v>
       </c>
       <c r="F32" s="17">
-        <v>-94802</v>
+        <v>-980919</v>
       </c>
       <c r="G32" s="17">
-        <v>-980919</v>
+        <v>-509177</v>
       </c>
       <c r="H32" s="17">
-        <v>-509177</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1693997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>17775</v>
+        <v>235474</v>
       </c>
       <c r="E33" s="19">
-        <v>235474</v>
+        <v>294875</v>
       </c>
       <c r="F33" s="19">
-        <v>294875</v>
+        <v>219460</v>
       </c>
       <c r="G33" s="19">
-        <v>219460</v>
+        <v>-505461</v>
       </c>
       <c r="H33" s="19">
-        <v>-505461</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3660103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1299,49 +1299,49 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>0</v>
+        <v>30044</v>
       </c>
       <c r="E35" s="15">
-        <v>30044</v>
+        <v>0</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>71101</v>
       </c>
       <c r="G35" s="15">
-        <v>71101</v>
+        <v>28896</v>
       </c>
       <c r="H35" s="15">
-        <v>28896</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1398,61 +1398,61 @@
         <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>1139070</v>
       </c>
       <c r="H39" s="15">
-        <v>1139070</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2364000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-10034</v>
+        <v>-20676</v>
       </c>
       <c r="E40" s="11">
-        <v>-20676</v>
+        <v>-4973</v>
       </c>
       <c r="F40" s="11">
-        <v>-4973</v>
+        <v>-48001</v>
       </c>
       <c r="G40" s="11">
-        <v>-48001</v>
+        <v>-325780</v>
       </c>
       <c r="H40" s="11">
-        <v>-325780</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2222803</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-35015</v>
+        <v>-33219</v>
       </c>
       <c r="E41" s="15">
-        <v>-33219</v>
+        <v>-28394</v>
       </c>
       <c r="F41" s="15">
-        <v>-28394</v>
+        <v>-20691</v>
       </c>
       <c r="G41" s="15">
-        <v>-20691</v>
+        <v>-39361</v>
       </c>
       <c r="H41" s="15">
-        <v>-39361</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-236671</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
-        <v>18</v>
+      <c r="D42" s="11">
+        <v>0</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>18</v>
+      <c r="D43" s="15">
+        <v>0</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>18</v>
+      <c r="D44" s="11">
+        <v>0</v>
       </c>
       <c r="E44" s="11">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>18</v>
+      <c r="D45" s="15">
+        <v>0</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>18</v>
+      <c r="D46" s="11">
+        <v>0</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
@@ -1551,13 +1551,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
-        <v>18</v>
+      <c r="D47" s="15">
+        <v>0</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-198914</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>18</v>
+      <c r="D48" s="11">
+        <v>0</v>
       </c>
       <c r="E48" s="11">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>18</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1614,91 +1614,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-52000</v>
+        <v>-175000</v>
       </c>
       <c r="E50" s="11">
-        <v>-175000</v>
+        <v>-82894</v>
       </c>
       <c r="F50" s="11">
-        <v>-82894</v>
+        <v>-205318</v>
       </c>
       <c r="G50" s="11">
-        <v>-205318</v>
+        <v>-152828</v>
       </c>
       <c r="H50" s="11">
-        <v>-152828</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1858949</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-10034</v>
+        <v>-198851</v>
       </c>
       <c r="E51" s="17">
-        <v>-198851</v>
+        <v>-116261</v>
       </c>
       <c r="F51" s="17">
-        <v>-116261</v>
+        <v>-202909</v>
       </c>
       <c r="G51" s="17">
-        <v>-202909</v>
+        <v>649997</v>
       </c>
       <c r="H51" s="17">
-        <v>649997</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2153337</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>7741</v>
+        <v>36623</v>
       </c>
       <c r="E52" s="19">
-        <v>36623</v>
+        <v>178614</v>
       </c>
       <c r="F52" s="19">
-        <v>178614</v>
+        <v>16551</v>
       </c>
       <c r="G52" s="19">
-        <v>16551</v>
+        <v>144536</v>
       </c>
       <c r="H52" s="19">
-        <v>144536</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1506766</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>12900</v>
+        <v>20641</v>
       </c>
       <c r="E53" s="15">
-        <v>20641</v>
+        <v>57264</v>
       </c>
       <c r="F53" s="15">
-        <v>57264</v>
+        <v>247513</v>
       </c>
       <c r="G53" s="15">
-        <v>247513</v>
+        <v>301092</v>
       </c>
       <c r="H53" s="15">
-        <v>301092</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>443348</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1707,40 +1707,40 @@
         <v>0</v>
       </c>
       <c r="E54" s="11">
-        <v>0</v>
+        <v>11635</v>
       </c>
       <c r="F54" s="11">
-        <v>11635</v>
+        <v>37028</v>
       </c>
       <c r="G54" s="11">
-        <v>37028</v>
+        <v>-2280</v>
       </c>
       <c r="H54" s="11">
-        <v>-2280</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-41177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>20641</v>
+        <v>57264</v>
       </c>
       <c r="E55" s="17">
-        <v>57264</v>
+        <v>247513</v>
       </c>
       <c r="F55" s="17">
-        <v>247513</v>
+        <v>301092</v>
       </c>
       <c r="G55" s="17">
-        <v>301092</v>
+        <v>443348</v>
       </c>
       <c r="H55" s="17">
-        <v>443348</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1908937</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1752,16 +1752,16 @@
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>398018</v>
       </c>
       <c r="G56" s="11">
-        <v>398018</v>
+        <v>0</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
